--- a/siddhu_notes/nodejs.xlsx
+++ b/siddhu_notes/nodejs.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="From Edx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Module 0: Introduction</t>
   </si>
@@ -200,13 +200,40 @@
     <t xml:space="preserve">cmd: 'node -e "console.log(process.version)" will tell you version of nodejs. 
 -e -&gt; stands for eval() function
 cmd: 'node -e "console.log(process.versions)" will tell you all versions of nodejs. </t>
+  </si>
+  <si>
+    <t>Like most platforms/languages (e.g., Java, Python, Ruby, and PHP), Node.js comes with a virtual environment called Read-Evaluate-Print Loop (REPL). Using REPL (a.k.a. Node console), we can execute pretty much any Node.js/JavaScript code. It is even possible to include modules and work with the file system!</t>
+  </si>
+  <si>
+    <t>Image URL</t>
+  </si>
+  <si>
+    <t>https://imgur.com/U4aaM3D</t>
+  </si>
+  <si>
+    <t>Everything in node js is module, for prove that just run the none exist file. Like node nonexistfile.js, It immeditaly throw the error module is not exist</t>
+  </si>
+  <si>
+    <t>REPL same as google chrome console, You can run the node js and js in REPL, But you can't save that script in file. Same as console in browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To come out REPL envoriment, Press CTRL+C two times </t>
+  </si>
+  <si>
+    <t>Node.js REPL</t>
+  </si>
+  <si>
+    <t>Launching Node.js Scripts</t>
+  </si>
+  <si>
+    <t>https://imgur.com/ZGszBuR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +252,20 @@
       <color rgb="FF313131"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,10 +291,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -267,14 +309,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,325 +633,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="1" max="2" width="64.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>